--- a/Telangana/Predicted_TG.xlsx
+++ b/Telangana/Predicted_TG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\Arima &amp; Sarima - COVID\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7140633-2F06-4F89-9A05-A7E85206AEFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3027DB6C-0ECD-453A-ADED-0D400232B0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="1cc01697f719b67d8a0984f0f5d3430" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -48,48 +49,6 @@
     <t>Predicted_Decreased</t>
   </si>
   <si>
-    <t>2020-06-12</t>
-  </si>
-  <si>
-    <t>2020-06-13</t>
-  </si>
-  <si>
-    <t>2020-06-14</t>
-  </si>
-  <si>
-    <t>2020-06-15</t>
-  </si>
-  <si>
-    <t>2020-06-16</t>
-  </si>
-  <si>
-    <t>2020-06-17</t>
-  </si>
-  <si>
-    <t>2020-06-18</t>
-  </si>
-  <si>
-    <t>2020-06-19</t>
-  </si>
-  <si>
-    <t>2020-06-20</t>
-  </si>
-  <si>
-    <t>2020-06-21</t>
-  </si>
-  <si>
-    <t>2020-06-22</t>
-  </si>
-  <si>
-    <t>2020-06-23</t>
-  </si>
-  <si>
-    <t>2020-06-24</t>
-  </si>
-  <si>
-    <t>2020-06-25</t>
-  </si>
-  <si>
     <t>2020-06-26</t>
   </si>
   <si>
@@ -109,18 +68,6 @@
   </si>
   <si>
     <t>2020-07-02</t>
-  </si>
-  <si>
-    <t>2020-07-03</t>
-  </si>
-  <si>
-    <t>2020-07-04</t>
-  </si>
-  <si>
-    <t>2020-07-05</t>
-  </si>
-  <si>
-    <t>2020-07-06</t>
   </si>
   <si>
     <t>MAPE</t>
@@ -191,21 +138,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>53339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>631096</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100678</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54C39C35-BC03-4A31-94F8-0B610D67D362}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F19693-7BF5-4D34-BAFC-0D994927C3BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -221,8 +168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4701540"/>
-          <a:ext cx="7252876" cy="3939540"/>
+          <a:off x="0" y="1897379"/>
+          <a:ext cx="6903720" cy="3735419"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -234,22 +181,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>160022</xdr:rowOff>
+      <xdr:colOff>297179</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>65442</xdr:rowOff>
+      <xdr:colOff>120676</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D1A596-0387-4BAB-B628-EE135CDD5C37}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA4C05B-D7E8-4A5E-9016-70DA51E9E538}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -265,8 +212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7277100" y="4686302"/>
-          <a:ext cx="6949440" cy="3761140"/>
+          <a:off x="6918959" y="1874520"/>
+          <a:ext cx="6955817" cy="3787140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -277,23 +224,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>548639</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>144781</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>434338</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>483928</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>194601</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D734999-A26B-469A-A3C7-FF933BA1A468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99141688-92DE-47E5-8AF1-25A874618C2C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -309,52 +256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3893819" y="8526781"/>
-          <a:ext cx="7174289" cy="3848099"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>502921</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>446333</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9946BC4-2309-451F-B19E-CDF2F33E170C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3848101" y="12397740"/>
-          <a:ext cx="7182412" cy="3931920"/>
+          <a:off x="3078478" y="5669280"/>
+          <a:ext cx="7700303" cy="4198620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -663,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="O90" sqref="O90"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -708,22 +611,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>164</v>
+        <v>985</v>
       </c>
       <c r="C2">
-        <v>252.328204591196</v>
+        <v>922.29420296779995</v>
       </c>
       <c r="D2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="E2">
-        <v>137.35622711864201</v>
+        <v>158.040746440714</v>
       </c>
       <c r="F2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>9.9827291895561405</v>
+        <v>5.5222747852699596</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -731,22 +634,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>253</v>
+        <v>1087</v>
       </c>
       <c r="C3">
-        <v>243.721550630422</v>
+        <v>1030.85536152844</v>
       </c>
       <c r="D3">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="E3">
-        <v>123.890773990426</v>
+        <v>234.374983930496</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>12.6283422391852</v>
+        <v>5.3222683490430098</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,22 +657,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>237</v>
+        <v>983</v>
       </c>
       <c r="C4">
-        <v>228.995013408484</v>
+        <v>1107.2201292827699</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="E4">
-        <v>142.17037364442299</v>
+        <v>208.30874731226501</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>8.5299087329658203</v>
+        <v>6.0221658473280799</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -777,22 +680,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>219</v>
+        <v>975</v>
       </c>
       <c r="C5">
-        <v>304.35792441655201</v>
+        <v>1151.9493893399199</v>
       </c>
       <c r="D5">
-        <v>389</v>
+        <v>410</v>
       </c>
       <c r="E5">
-        <v>150.870059732447</v>
+        <v>281.527020359174</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>9.6789838337240592</v>
+        <v>5.62221946187704</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -800,22 +703,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>213</v>
+        <v>945</v>
       </c>
       <c r="C6">
-        <v>288.46985547509399</v>
+        <v>1184.8942397032199</v>
       </c>
       <c r="D6">
-        <v>261</v>
+        <v>1712</v>
       </c>
       <c r="E6">
-        <v>171.26901787399001</v>
+        <v>361.64784634284501</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>12.9648523512568</v>
+        <v>6.2222487565525002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -823,22 +726,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>269</v>
+        <v>1018</v>
       </c>
       <c r="C7">
-        <v>269.41366555125899</v>
+        <v>1299.48477328485</v>
       </c>
       <c r="D7">
-        <v>44</v>
+        <v>788</v>
       </c>
       <c r="E7">
-        <v>220.53477562582299</v>
+        <v>312.74341252514802</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>9.4042715792826694</v>
+        <v>6.5222965112869602</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -846,450 +749,36 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>352</v>
+        <v>1213</v>
       </c>
       <c r="C8">
-        <v>343.97827136774401</v>
+        <v>1328.4844699688599</v>
       </c>
       <c r="D8">
-        <v>230</v>
+        <v>987</v>
       </c>
       <c r="E8">
-        <v>203.31280521622801</v>
+        <v>264.30402445558298</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>10.410450287879</v>
+        <v>6.0926465968775796</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>499</v>
-      </c>
-      <c r="C9">
-        <v>343.98624901760797</v>
-      </c>
-      <c r="D9">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>232.56786078450199</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>13.0925114705884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>546</v>
-      </c>
-      <c r="C10">
-        <v>343.06558035412502</v>
-      </c>
-      <c r="D10">
-        <v>154</v>
-      </c>
-      <c r="E10">
-        <v>293.846940207567</v>
-      </c>
-      <c r="F10">
-        <v>5</v>
-      </c>
-      <c r="G10">
-        <v>10.960464002659499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>730</v>
-      </c>
-      <c r="C11">
-        <v>413.15701700490001</v>
-      </c>
-      <c r="D11">
-        <v>225</v>
-      </c>
-      <c r="E11">
-        <v>283.80408894206403</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="G11">
-        <v>12.1201100575453</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>872</v>
-      </c>
-      <c r="C12">
-        <v>405.486572735756</v>
-      </c>
-      <c r="D12">
-        <v>274</v>
-      </c>
-      <c r="E12">
-        <v>296.47528444909801</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
-      </c>
-      <c r="G12">
-        <v>15.382458189411301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>879</v>
-      </c>
-      <c r="C13">
-        <v>394.12374500052601</v>
-      </c>
-      <c r="D13">
-        <v>219</v>
-      </c>
-      <c r="E13">
-        <v>341.903520299543</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>11.4040332608049</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>891</v>
-      </c>
-      <c r="C14">
-        <v>475.72187534557702</v>
-      </c>
-      <c r="D14">
-        <v>137</v>
-      </c>
-      <c r="E14">
-        <v>338.38912602648799</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <v>12.5773850816046</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>920</v>
-      </c>
-      <c r="C15">
-        <v>469.80660636387</v>
-      </c>
-      <c r="D15">
-        <v>327</v>
-      </c>
-      <c r="E15">
-        <v>367.64685364793098</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>15.783044946344599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>985</v>
-      </c>
-      <c r="C16">
-        <v>461.62291510338201</v>
-      </c>
-      <c r="D16">
-        <v>78</v>
-      </c>
-      <c r="E16">
-        <v>430.140525115868</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16">
-        <v>12.7830662957259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>1087</v>
-      </c>
-      <c r="C17">
-        <v>543.86249777213197</v>
-      </c>
-      <c r="D17">
-        <v>162</v>
-      </c>
-      <c r="E17">
-        <v>420.86430426379297</v>
-      </c>
-      <c r="F17">
-        <v>6</v>
-      </c>
-      <c r="G17">
-        <v>13.985810380425299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>983</v>
-      </c>
-      <c r="C18">
-        <v>541.79517373662804</v>
-      </c>
-      <c r="D18">
-        <v>244</v>
-      </c>
-      <c r="E18">
-        <v>446.99908309993998</v>
-      </c>
-      <c r="F18">
-        <v>4</v>
-      </c>
-      <c r="G18">
-        <v>17.251709240509999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>975</v>
-      </c>
-      <c r="C19">
-        <v>537.58610643166696</v>
-      </c>
-      <c r="D19">
-        <v>410</v>
-      </c>
-      <c r="E19">
-        <v>508.03033497733003</v>
-      </c>
-      <c r="F19">
-        <v>6</v>
-      </c>
-      <c r="G19">
-        <v>13.864351765265299</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>945</v>
-      </c>
-      <c r="C20">
-        <v>622.81455494182501</v>
-      </c>
-      <c r="D20">
-        <v>1712</v>
-      </c>
-      <c r="E20">
-        <v>504.59226540652298</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20">
-        <v>15.142865780454001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>1018</v>
-      </c>
-      <c r="C21">
-        <v>619.40527903236705</v>
-      </c>
-      <c r="D21">
-        <v>788</v>
-      </c>
-      <c r="E21">
-        <v>532.52461009301896</v>
-      </c>
-      <c r="F21">
-        <v>7</v>
-      </c>
-      <c r="G21">
-        <v>18.626543809244701</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>1213</v>
-      </c>
-      <c r="C22">
-        <v>613.34275839878501</v>
-      </c>
-      <c r="D22">
-        <v>987</v>
-      </c>
-      <c r="E22">
-        <v>596.04441104548403</v>
-      </c>
-      <c r="F22">
-        <v>8</v>
-      </c>
-      <c r="G22">
-        <v>14.985470209705801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23">
-        <v>1892</v>
-      </c>
-      <c r="C23">
-        <v>704.17503822338404</v>
-      </c>
-      <c r="D23">
-        <v>1126</v>
-      </c>
-      <c r="E23">
-        <v>593.03881064761595</v>
-      </c>
-      <c r="F23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>16.289173714830302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24">
-        <v>1850</v>
-      </c>
-      <c r="C24">
-        <v>702.81513820482201</v>
-      </c>
-      <c r="D24">
-        <v>1342</v>
-      </c>
-      <c r="E24">
-        <v>626.34405705040297</v>
-      </c>
-      <c r="F24">
-        <v>5</v>
-      </c>
-      <c r="G24">
-        <v>19.787801034550998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>1590</v>
-      </c>
-      <c r="C25">
-        <v>699.30033527836099</v>
-      </c>
-      <c r="D25">
-        <v>1166</v>
-      </c>
-      <c r="E25">
-        <v>696.33688561490806</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>16.345523921750001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>1831</v>
-      </c>
-      <c r="C26">
-        <v>792.93282276899504</v>
-      </c>
-      <c r="D26">
-        <v>2078</v>
-      </c>
-      <c r="E26">
-        <v>694.283741761138</v>
-      </c>
-      <c r="F26">
-        <v>11</v>
-      </c>
-      <c r="G26">
-        <v>17.7054279303021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1.9232941762317698E-2</v>
-      </c>
-      <c r="E27" s="3">
-        <v>2.34009726415839E-2</v>
-      </c>
-      <c r="G27" s="3">
-        <v>5.6932564342006303E-2</v>
+      <c r="C9" s="3">
+        <v>0.14981947026912801</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.57951947085551103</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.18719051621850499</v>
       </c>
     </row>
   </sheetData>

--- a/Telangana/Predicted_TG.xlsx
+++ b/Telangana/Predicted_TG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\DIC Projects\COVID Trend Analysis\Arima &amp; Sarima Models - COVID Trend Analysis\SARIMA\Telangana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{3027DB6C-0ECD-453A-ADED-0D400232B0C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F027F-4A5E-4DAF-94C1-4E9AFC9D0686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="1cc01697f719b67d8a0984f0f5d3430" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -139,20 +138,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>53339</xdr:rowOff>
+      <xdr:rowOff>45721</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:colOff>339029</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>100678</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05F19693-7BF5-4D34-BAFC-0D994927C3BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7D4FC1-F800-4806-BC02-72B13415EAC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -168,8 +167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1897379"/>
-          <a:ext cx="6903720" cy="3735419"/>
+          <a:off x="0" y="1889761"/>
+          <a:ext cx="6960809" cy="3802379"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -181,22 +180,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>297179</xdr:colOff>
+      <xdr:colOff>335278</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>120676</xdr:colOff>
+      <xdr:colOff>76199</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>103588</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA4C05B-D7E8-4A5E-9016-70DA51E9E538}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D966EC50-D5FB-43C0-98C3-2508A544E52D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -212,8 +211,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6918959" y="1874520"/>
-          <a:ext cx="6955817" cy="3787140"/>
+          <a:off x="6957058" y="1920239"/>
+          <a:ext cx="6873241" cy="3715469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -225,22 +224,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>434338</xdr:colOff>
+      <xdr:colOff>464819</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>194601</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>519948</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99141688-92DE-47E5-8AF1-25A874618C2C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613EF7A3-410F-4889-AAE5-F94E6E07A13D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -256,8 +255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3078478" y="5669280"/>
-          <a:ext cx="7700303" cy="4198620"/>
+          <a:off x="3108959" y="5684520"/>
+          <a:ext cx="7995169" cy="4373880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Telangana/Predicted_TG.xlsx
+++ b/Telangana/Predicted_TG.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Projects\DIC Projects\COVID Trend Analysis\Arima &amp; Sarima Models - COVID Trend Analysis\SARIMA\Telangana\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karti\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8F027F-4A5E-4DAF-94C1-4E9AFC9D0686}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{D12C6233-65CD-438D-9C1F-5B48CFA1CD36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="1cc01697f719b67d8a0984f0f5d3430" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -138,20 +139,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>45721</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>339029</xdr:colOff>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>158715</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7D4FC1-F800-4806-BC02-72B13415EAC2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94ABB9D6-6D57-4927-8E4A-AE334A556E0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -167,8 +168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1889761"/>
-          <a:ext cx="6960809" cy="3802379"/>
+          <a:off x="0" y="1844040"/>
+          <a:ext cx="7033260" cy="3846795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -180,22 +181,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335278</xdr:colOff>
+      <xdr:colOff>426720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:colOff>198120</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>103588</xdr:rowOff>
+      <xdr:rowOff>125110</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D966EC50-D5FB-43C0-98C3-2508A544E52D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22CDDD96-031C-40E5-A2C6-94EB6EE40559}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -211,8 +212,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6957058" y="1920239"/>
-          <a:ext cx="6873241" cy="3715469"/>
+          <a:off x="7048500" y="1844040"/>
+          <a:ext cx="6903720" cy="3813190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -224,22 +225,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>464819</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>137161</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>519948</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>164269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613EF7A3-410F-4889-AAE5-F94E6E07A13D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DDB2AE1-85A5-4AC1-92DC-7FBBA5A9303B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -255,8 +256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3108959" y="5684520"/>
-          <a:ext cx="7995169" cy="4373880"/>
+          <a:off x="3177540" y="5669281"/>
+          <a:ext cx="7993380" cy="4385748"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -613,19 +614,19 @@
         <v>985</v>
       </c>
       <c r="C2">
-        <v>922.29420296779995</v>
+        <v>891.38432217008506</v>
       </c>
       <c r="D2">
         <v>78</v>
       </c>
       <c r="E2">
-        <v>158.040746440714</v>
+        <v>193.65841194116501</v>
       </c>
       <c r="F2">
         <v>7</v>
       </c>
       <c r="G2">
-        <v>5.5222747852699596</v>
+        <v>5.8298366436805802</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -636,19 +637,19 @@
         <v>1087</v>
       </c>
       <c r="C3">
-        <v>1030.85536152844</v>
+        <v>841.51465588188796</v>
       </c>
       <c r="D3">
         <v>162</v>
       </c>
       <c r="E3">
-        <v>234.374983930496</v>
+        <v>190.70074709275301</v>
       </c>
       <c r="F3">
         <v>6</v>
       </c>
       <c r="G3">
-        <v>5.3222683490430098</v>
+        <v>7.1438697038691803</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -659,19 +660,19 @@
         <v>983</v>
       </c>
       <c r="C4">
-        <v>1107.2201292827699</v>
+        <v>940.78078503035897</v>
       </c>
       <c r="D4">
         <v>244</v>
       </c>
       <c r="E4">
-        <v>208.30874731226501</v>
+        <v>311.32464013556501</v>
       </c>
       <c r="F4">
         <v>4</v>
       </c>
       <c r="G4">
-        <v>6.0221658473280799</v>
+        <v>5.2681327783136398</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,19 +683,19 @@
         <v>975</v>
       </c>
       <c r="C5">
-        <v>1151.9493893399199</v>
+        <v>991.27360168424696</v>
       </c>
       <c r="D5">
         <v>410</v>
       </c>
       <c r="E5">
-        <v>281.527020359174</v>
+        <v>460.42283728217802</v>
       </c>
       <c r="F5">
         <v>6</v>
       </c>
       <c r="G5">
-        <v>5.62221946187704</v>
+        <v>5.51198038855624</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,19 +706,19 @@
         <v>945</v>
       </c>
       <c r="C6">
-        <v>1184.8942397032199</v>
+        <v>1033.26135969079</v>
       </c>
       <c r="D6">
         <v>1712</v>
       </c>
       <c r="E6">
-        <v>361.64784634284501</v>
+        <v>613.75988329753898</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
       <c r="G6">
-        <v>6.2222487565525002</v>
+        <v>6.6280585077492997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,19 +729,19 @@
         <v>1018</v>
       </c>
       <c r="C7">
-        <v>1299.48477328485</v>
+        <v>1001.64931767916</v>
       </c>
       <c r="D7">
         <v>788</v>
       </c>
       <c r="E7">
-        <v>312.74341252514802</v>
+        <v>343.79517502104699</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>6.5222965112869602</v>
+        <v>6.66068206826455</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -751,19 +752,19 @@
         <v>1213</v>
       </c>
       <c r="C8">
-        <v>1328.4844699688599</v>
+        <v>1120.27305164879</v>
       </c>
       <c r="D8">
         <v>987</v>
       </c>
       <c r="E8">
-        <v>264.30402445558298</v>
+        <v>277.588249803525</v>
       </c>
       <c r="F8">
         <v>8</v>
       </c>
       <c r="G8">
-        <v>6.0926465968775796</v>
+        <v>5.8757294562212703</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -771,13 +772,13 @@
         <v>14</v>
       </c>
       <c r="C9" s="3">
-        <v>0.14981947026912801</v>
+        <v>8.0917593766461904E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>0.57951947085551103</v>
+        <v>0.56897587422707396</v>
       </c>
       <c r="G9" s="3">
-        <v>0.18719051621850499</v>
+        <v>0.16047474971481401</v>
       </c>
     </row>
   </sheetData>
